--- a/TestData/TestData3.xlsx
+++ b/TestData/TestData3.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
 </workbook>
@@ -1317,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1461,10 +1461,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="" tooltip="" display="gogoi.anshuman21@gmail.commmm" r:id="rId1"/>
-    <hyperlink ref="A3" location="" tooltip="" display="gogoi.anshuman12@gmail.comhhh" r:id="rId2"/>
-    <hyperlink ref="A4" location="" tooltip="" display="gogoi.anshuman13@gmail.comkkk" r:id="rId3"/>
-    <hyperlink ref="A5" location="" tooltip="" display="gogoi.anshuman14@gmail.comlll" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" location="" tooltip="" display="gogoi.anshuman21@gmail.commmm" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" location="" tooltip="" display="gogoi.anshuman12@gmail.comhhh" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" location="" tooltip="" display="gogoi.anshuman13@gmail.comkkk" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" location="" tooltip="" display="gogoi.anshuman14@gmail.comlll" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup orientation="portrait" scale="72" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" pageOrder="downThenOver"/>
